--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -4,26 +4,41 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,16 +58,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -341,213 +376,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J11" activeCellId="0" pane="topLeft" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.515625" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="15"/>
-    <col customWidth="1" max="7" min="7" width="15"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" width="15"/>
-    <col customWidth="1" max="10" min="10" width="15"/>
+    <col customWidth="1" max="1" min="1" style="2" width="28.99"/>
+    <col customWidth="1" max="10" min="2" style="2" width="33"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row customHeight="1" ht="15" r="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>BarCodeID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>1190001421986</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>1190002421985</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>1190003421984</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>1190004421983</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>1190005421982</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>1190006421981</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>1190007421980</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>1190008421989</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>1190009421988</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row customHeight="1" ht="15" r="2" s="3">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Day1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Day2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Day3</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Day4</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row customHeight="1" ht="15" r="6" s="3">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Day5</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row customHeight="1" ht="15" r="7" s="3">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Day6</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row customHeight="1" ht="15" r="8" s="3">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Day7</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row customHeight="1" ht="15" r="9" s="3">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Day8</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row customHeight="1" ht="15" r="10" s="3">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="11" s="3">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>DateTime</t>
         </is>
       </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:23:19 2019</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:23:35 2019</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:23:42 2019</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:23:49 2019</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:23:56 2019</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:24:03 2019</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:24:10 2019</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:24:18 2019</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Thu Oct 17 17:24:27 2019</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -507,7 +507,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -517,7 +517,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -527,7 +527,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -537,7 +537,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -554,27 +554,47 @@
           <t>Day3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -586,6 +606,31 @@
           <t>Day4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="6" s="3">
       <c r="A6" s="2" t="inlineStr">
@@ -623,47 +668,47 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -675,47 +720,47 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:23:19 2019</t>
+          <t>Thu Oct 17 17:37:25 2019</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:23:35 2019</t>
+          <t>Thu Oct 17 17:37:36 2019</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:23:42 2019</t>
+          <t>Thu Oct 17 17:37:49 2019</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:23:49 2019</t>
+          <t>Thu Oct 17 17:38:02 2019</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:23:56 2019</t>
+          <t>Thu Oct 17 17:38:09 2019</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:24:03 2019</t>
+          <t>Thu Oct 17 17:38:17 2019</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:24:10 2019</t>
+          <t>Thu Oct 17 17:38:24 2019</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:24:18 2019</t>
+          <t>Thu Oct 17 17:38:32 2019</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:24:27 2019</t>
+          <t>Thu Oct 17 17:38:39 2019</t>
         </is>
       </c>
     </row>

--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -559,7 +559,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -569,7 +569,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -579,7 +579,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -589,7 +589,7 @@
           <t>Present</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -606,27 +606,27 @@
           <t>Day4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -638,6 +638,11 @@
           <t>Day5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="7" s="3">
       <c r="A7" s="2" t="inlineStr">
@@ -645,6 +650,11 @@
           <t>Day6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
@@ -652,6 +662,11 @@
           <t>Day7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
@@ -659,6 +674,11 @@
           <t>Day8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="10" s="3">
       <c r="A10" s="2" t="inlineStr">
@@ -668,7 +688,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -720,7 +740,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:37:25 2019</t>
+          <t>Thu Oct 17 17:57:52 2019</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">

--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -450,16 +450,8 @@
           <t>Day1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Present</t>
@@ -502,16 +494,8 @@
           <t>Day2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Present</t>
@@ -554,16 +538,8 @@
           <t>Day3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Present</t>
@@ -606,7 +582,8 @@
           <t>Day4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -638,7 +615,8 @@
           <t>Day5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="n"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -650,11 +628,7 @@
           <t>Day6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B7" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
@@ -662,11 +636,7 @@
           <t>Day7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B8" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
@@ -674,11 +644,7 @@
           <t>Day8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
+      <c r="B9" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="10" s="3">
       <c r="A10" s="2" t="inlineStr">
@@ -693,12 +659,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -745,12 +711,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:37:36 2019</t>
+          <t>Thu Oct 17 18:34:27 2019</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:37:49 2019</t>
+          <t>Thu Oct 17 18:34:34 2019</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">

--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -450,41 +450,49 @@
           <t>Day1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -494,41 +502,49 @@
           <t>Day2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -538,41 +554,49 @@
           <t>Day3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -582,30 +606,49 @@
           <t>Day4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -615,10 +658,49 @@
           <t>Day5</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -628,7 +710,51 @@
           <t>Day6</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
@@ -636,7 +762,51 @@
           <t>Day7</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
@@ -644,7 +814,51 @@
           <t>Day8</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="10" s="3">
       <c r="A10" s="2" t="inlineStr">
@@ -654,47 +868,47 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -711,12 +925,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 18:34:27 2019</t>
+          <t>Fri Oct 18 16:32:12 2019</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 18:34:34 2019</t>
+          <t>Fri Oct 18 16:32:22 2019</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -731,7 +945,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Thu Oct 17 17:38:17 2019</t>
+          <t>Fri Oct 18 16:32:36 2019</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -386,7 +386,7 @@
       <selection activeCell="F13" activeCellId="0" pane="topLeft" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5234375" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5234375" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="28.98"/>
     <col customWidth="1" max="6" min="2" style="2" width="27"/>
@@ -481,7 +481,7 @@
           <t>Day4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -493,6 +493,11 @@
           <t>Day5</t>
         </is>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="7" s="3">
       <c r="A7" s="2" t="inlineStr">
@@ -500,6 +505,11 @@
           <t>Day6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
@@ -507,6 +517,11 @@
           <t>Day7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
@@ -523,7 +538,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -555,7 +570,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Sun Jan  5 14:21:01 2020</t>
+          <t>Sat Jan 11 15:24:45 2020</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">

--- a/attendanceCheck.xlsx
+++ b/attendanceCheck.xlsx
@@ -380,16 +380,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="D1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F13" activeCellId="0" pane="topLeft" sqref="F13"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A11" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F27" activeCellId="0" pane="topLeft" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5234375" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.515625" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="28.98"/>
-    <col customWidth="1" max="6" min="2" style="2" width="27"/>
+    <col customWidth="1" max="1" min="1" style="2" width="28.99"/>
+    <col customWidth="1" max="6" min="2" style="2" width="27.99"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1" s="3">
@@ -420,7 +420,7 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>1911005</t>
+          <t>19110059</t>
         </is>
       </c>
     </row>
@@ -430,17 +430,22 @@
           <t>Day1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
@@ -452,16 +457,6 @@
           <t>Day2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="4" s="3">
       <c r="A4" s="2" t="inlineStr">
@@ -469,11 +464,6 @@
           <t>Day3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="5" s="3">
       <c r="A5" s="2" t="inlineStr">
@@ -481,11 +471,6 @@
           <t>Day4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="6" s="3">
       <c r="A6" s="2" t="inlineStr">
@@ -493,11 +478,6 @@
           <t>Day5</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="7" s="3">
       <c r="A7" s="2" t="inlineStr">
@@ -505,11 +485,6 @@
           <t>Day6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
@@ -517,11 +492,6 @@
           <t>Day7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
@@ -533,64 +503,176 @@
     <row customHeight="1" ht="15" r="10" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>Day9</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Day10</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Day11</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Day12</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="3">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Day14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Day15</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Day16</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="3">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Day17</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="3">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Day18</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="3">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Day19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="3">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Day20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="3">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Day21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="3">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Day22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="3">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Day23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="3">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Day24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="3">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="11" s="3">
-      <c r="A11" s="2" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="13.8" r="27" s="3">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>DateTime</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Sat Jan 11 15:24:45 2020</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Sat Dec 21 11:10:45 2019</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Sat Dec 21 16:49:06 2019</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Sat Dec 14 10:55:50 2019</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Sat Dec 14 10:55:50 2019</t>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 15:19:39 2020</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 15:20:43 2020</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 15:20:47 2020</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 15:20:50 2020</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Sat Jan 18 09:59:38 2020</t>
         </is>
       </c>
     </row>
